--- a/media/output/result/bpic2011_f3_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f3_complex_evaluation_weighted_edit_distance.xlsx
@@ -737,25 +737,25 @@
         <v>180</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>79</v>
+      </c>
+      <c r="F11" t="n">
         <v>101</v>
       </c>
-      <c r="D11" t="n">
-        <v>79</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.5611111111111111</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7188612099644128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">

--- a/media/output/result/bpic2011_f3_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f3_complex_evaluation_weighted_edit_distance.xlsx
@@ -737,25 +737,25 @@
         <v>180</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.5611111111111111</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.7188612099644128</v>
       </c>
     </row>
     <row r="12">
